--- a/RUDN/Importance/Varible_muatal_class_in_South America.xlsx
+++ b/RUDN/Importance/Varible_muatal_class_in_South America.xlsx
@@ -14,56 +14,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="678">
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
   <si>
     <t>Age population, age 09, female, interpolated</t>
   </si>
   <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 10, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 11, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 11, male, interpolated</t>
   </si>
   <si>
     <t>Population ages 0-14, female</t>
   </si>
   <si>
+    <t>Urban population</t>
+  </si>
+  <si>
     <t>Male population 40-44</t>
   </si>
   <si>
@@ -97,93 +100,90 @@
     <t>Age population, age 04, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 0, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 03, male, interpolated</t>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
   </si>
   <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
+    <t>Urban population (% of total)</t>
   </si>
   <si>
     <t>Rural population (% of total population)</t>
   </si>
   <si>
-    <t>Urban population (% of total)</t>
+    <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
     <t>Female population 45-49</t>
   </si>
   <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Population ages 15-64, female</t>
   </si>
   <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
     <t>Population ages 15-64, total</t>
   </si>
   <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
     <t>Male population 30-34</t>
   </si>
   <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
     <t>Number of maternal deaths</t>
   </si>
   <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
     <t>Population, total</t>
   </si>
   <si>
@@ -226,15 +226,15 @@
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
     <t>Male population 50-54</t>
   </si>
   <si>
@@ -313,6 +313,9 @@
     <t>Male population 60-64</t>
   </si>
   <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
     <t>Age population, age 25, female, interpolated</t>
   </si>
   <si>
@@ -322,9 +325,6 @@
     <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
     <t>Age population, age 24, female, interpolated</t>
   </si>
   <si>
@@ -388,126 +388,144 @@
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
   </si>
   <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
   </si>
   <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
     <t>Number of people who are undernourished</t>
   </si>
   <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
   </si>
   <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+    <t>Contributing family workers, female (% of female employment)</t>
   </si>
   <si>
     <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
   </si>
   <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
   </si>
   <si>
     <t>Employment in services, female (% of female employment)</t>
   </si>
   <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
     <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>GNI, Atlas method (current US$)</t>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
   </si>
   <si>
     <t>Wage and salaried workers, female (% of female employment)</t>
   </si>
   <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
   </si>
   <si>
     <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
@@ -517,1540 +535,1519 @@
     <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
     <t>Vulnerable employment, total (% of total employment)</t>
   </si>
   <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
     <t>People using safely managed drinking water services, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
   </si>
   <si>
     <t>Prevalence of HIV, male (% ages 15-24)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
+    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
   </si>
   <si>
     <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth total (% of people ages 15-24)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
   <si>
     <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth male (% of males ages 15-24)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Ratio of young literate females to males (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Low-birthweight babies (% of births)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
   </si>
   <si>
     <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Rural poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth total (% of people ages 15-24)</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Ratio of young literate females to males (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Rural poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Urban poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
     <t>Start-up procedures to register a business, male (number)</t>
   </si>
   <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
   </si>
   <si>
     <t>Poverty gap at national poverty lines (%)</t>
   </si>
   <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Low-birthweight babies (% of births)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+    <t>Diarrhea treatment (% of children under 5 receiving oral rehydration and continued feeding)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Informal employment, female (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Informal employment, male (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least Bachelor's or equivalent, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least Bachelor's or equivalent, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Master's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Female share of employment in senior and middle management (%)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
   </si>
   <si>
     <t>Prevalence of underweight, weight for age (% of children under 5)</t>
   </si>
   <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Urban poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Informal employment, female (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight (% of children under 5)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least Master's or equivalent, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
   </si>
   <si>
     <t>Educational attainment, at least Master's or equivalent, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Master's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least Master's or equivalent, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Informal employment, male (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
     <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
   </si>
   <si>
-    <t>Population ages 35-39, male (% of male population)</t>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Malnourished children (wasting, -3SD) (% of children under 5): Q2</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she argues with him (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
   </si>
   <si>
     <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
   </si>
   <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least Bachelor's or equivalent, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, female (%)</t>
+    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Master's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Decision maker about major household purchases: mainly husband (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Malnourished children (underweight, -3SD) (% of children under 5): Q4</t>
   </si>
   <si>
     <t>Persistence to grade 5, male (% of cohort)</t>
   </si>
   <si>
-    <t>Educational attainment, at least Bachelor's or equivalent, population 25+, female (%) (cumulative)</t>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Malnourished children (underweight, -2SD) (% of children under 5): Q2</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Malnourished children (underweight, -2SD) (% of children under 5): Q3</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband for none of the reasons (%): Q3</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Malnourished children (stunting, -3SD) (% of children under 5): Q4</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Condom use at last high-risk sex, adult female (% ages 15-49)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Malnourished children (stunting, -3SD) (% of children under 5): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Location of cooking: inside the house (% of households)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Malnourished children (underweight, -3SD) (% of children under 5): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Diarrhea treatment (% of children under 5 who received ORS packet)</t>
+  </si>
+  <si>
+    <t>Decision maker about a woman's own health care: someone else (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Women who were first married by age 18 (% of women ages 20-24)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (for limiting) (% of married women): Q2</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (for spacing) (% of married women): Q2</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%): Q2</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%): Q4</t>
+  </si>
+  <si>
+    <t>Decision maker about a woman's own health care: mainly wife (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Self-employed, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Decision maker about a woman's visits to her family or relatives: someone else (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (for limiting) (% of married women): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: straw/shrubs/grass (% of households)</t>
+  </si>
+  <si>
+    <t>Contraceptive prevalence, modern methods (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (total) (% of married women): Q4</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: charcoal (% of households)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Total wanted fertility rate (births per woman): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%): Q3</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Women participating in making daily purchase decisions (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%): Q4</t>
+  </si>
+  <si>
+    <t>Malnourished children (wasting, -2SD) (% of children under 5): Q3</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Decision maker about a woman's visits to her family or relatives: mainly husband (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Malnourished children (wasting, -3SD) (% of children under 5): Q3</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%)</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (total) (% of married women): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%): Q4</t>
+  </si>
+  <si>
+    <t>Malnourished children (underweight, -3SD) (% of children under 5): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%): Q2</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Malnourished children (wasting, -2SD) (% of children under 5): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Pregnant women receiving prenatal care (%)</t>
+  </si>
+  <si>
+    <t>Female headed households (% of households with a female head)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%): Q3</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%): Q2</t>
+  </si>
+  <si>
+    <t>Women participating in the three decisions (own health care, major household purchases, and visiting family) (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>ARI treatment (% of children under 5 taken to a health provider)</t>
+  </si>
+  <si>
+    <t>Women participating in making major household purchase decisions (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Decision maker about major household purchases: other (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%): Q4</t>
+  </si>
+  <si>
+    <t>Exclusive breastfeeding (% of children under 6 months)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Age at first marriage, female</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%): Q3</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%): Q3</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Malnourished children (underweight, -3SD) (% of children under 5): Q2</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Malnourished children (stunting, -2SD) (% of children under 5): Q4</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (total) (% of married women): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Women participating in decision of what food to cook daily (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she argues with him (%): Q4</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Malnourished children (stunting, -2SD) (% of children under 5): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%): Q4</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%): Q4</t>
+  </si>
+  <si>
+    <t>Decision maker about major household purchases: mainly wife (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she argues with him (%): Q2</t>
+  </si>
+  <si>
+    <t>Decision maker about a woman's own health care: other (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnourished children (underweight, -2SD) (% of children under 5): Q4</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: dung (% of households)</t>
+  </si>
+  <si>
+    <t>Children in employment, male (% of male children ages 7-14)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%)</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (for limiting) (% of married women): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Pregnant women receiving prenatal care of at least four visits (% of pregnant women)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Decision maker about a woman's own health care: mainly husband (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Women participating in none of the three decisions (own health care, major household purchases, and visiting family) (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she argues with him (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: LPG/natural gas/biogas (% of households)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: wood (% of households)</t>
+  </si>
+  <si>
+    <t>Households with water 30 minutes or longer away round trip (%)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she argues with him (%): Q3</t>
+  </si>
+  <si>
+    <t>Wanted fertility rate (births per woman)</t>
+  </si>
+  <si>
+    <t>Location of cooking: separate building (% of households)</t>
+  </si>
+  <si>
+    <t>Teenage mothers (% of women ages 15-19 who have had children or are currently pregnant)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Total wanted fertility rate (births per woman): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%): Q3</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnourished children (stunting, -3SD) (% of children under 5): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband for none of the reasons (%)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (for limiting) (% of married women): Q3</t>
+  </si>
+  <si>
+    <t>Malnourished children (stunting, -2SD) (% of children under 5): Q3</t>
+  </si>
+  <si>
+    <t>Location of cooking: outdoors (% of households)</t>
+  </si>
+  <si>
+    <t>Malnourished children (wasting, -2SD) (% of children under 5): Q2</t>
+  </si>
+  <si>
+    <t>Decision maker about a woman's own health care: wife and husband jointly (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Total wanted fertility rate (births per woman): Q2</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnourished children (wasting, -2SD) (% of children under 5): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she burns the food (%): Q2</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: agricultural crop (% of households)</t>
+  </si>
+  <si>
+    <t>Households with water on the premises (%)</t>
+  </si>
+  <si>
+    <t>Location of cooking: other places (% of households)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Malnourished children (wasting, -3SD) (% of children under 5): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%): Q4</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%)</t>
+  </si>
+  <si>
+    <t>Households with water less than 30 minutes away round trip (%)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Demand for family planning satisfied by any methods (% of married women with demand for family planning)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she burns the food (%): Q3</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (for spacing) (% of married women): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%): Q3</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%): Q3</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she argues with him (%)</t>
+  </si>
+  <si>
+    <t>Decision maker about Visits to her family or relatives: wife and husband jointly (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Malnourished children (stunting, -2SD) (% of children under 5): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (for spacing) (% of married women): Q3</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she burns the food (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%): Q3</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%): Q4</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Malnourished children (stunting, -3SD) (% of children under 5): Q2</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Demand for family planning satisfied by modern methods (% of married women with demand for family planning)</t>
+  </si>
+  <si>
+    <t>Malnourished children (stunting, -3SD) (% of children under 5): Q3</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%): Q2</t>
+  </si>
+  <si>
+    <t>Malnourished children (wasting, -3SD) (% of children under 5): Q4</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Malnourished children (underweight, -2SD) (% of children under 5): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Decision maker about major household purchases: wife and husband jointly (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Decision maker about major household purchases: someone else (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%): Q2</t>
+  </si>
+  <si>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%): Q2</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she burns the food (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Postnatal care coverage (% mothers)</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (for spacing) (% of married women): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband for none of the reasons (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Decision maker about a woman's visits to her family or relatives: mainly wife (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%): Q2</t>
+  </si>
+  <si>
+    <t>Total wanted fertility rate (births per woman): Q4</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%)</t>
+  </si>
+  <si>
+    <t>Malnourished children (underweight, -2SD) (% of children under 5): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Women participating in decision of visits to family, relatives, friends (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband for none of the reasons (%): Q2</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Malnourished children (wasting, -2SD) (% of children under 5): Q4</t>
+  </si>
+  <si>
+    <t>Condom use with non regular partner, % adults(15-49), female</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnourished children (wasting, -3SD) (% of children under 5): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%): Q3</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (for limiting) (% of married women): Q4</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Decision maker about a woman's visits to her family or relatives: other (% of women age 15-49)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unmet need for family planning (total) (% of married women): Q3</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Region_code</t>
+  </si>
+  <si>
+    <t>Total wanted fertility rate (births per woman): Q3</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband for none of the reasons (%): Q4</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband for none of the reasons (%): Q5 (highest)</t>
+  </si>
+  <si>
+    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%): Q2</t>
+  </si>
+  <si>
+    <t>Malnourished children (stunting, -2SD) (% of children under 5): Q2</t>
+  </si>
+  <si>
+    <t>Reion_sub_code</t>
+  </si>
+  <si>
+    <t>Malnourished children (underweight, -3SD) (% of children under 5): Q3</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%): Q1 (lowest)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: electricity  (% of households)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she burns the food (%)</t>
+  </si>
+  <si>
+    <t>Unmet need for contraception (% of married women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
   </si>
   <si>
     <t>Unmet need for family planning (total) (% of married women): Q2</t>
   </si>
   <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Master's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Malnourished children (stunting, -3SD) (% of children under 5): Q3</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Female share of employment in senior and middle management (%)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Contraceptive prevalence, modern methods (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>ARI treatment (% of children under 5 taken to a health provider)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (for limiting) (% of married women): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Pregnant women receiving prenatal care of at least four visits (% of pregnant women)</t>
-  </si>
-  <si>
-    <t>Decision maker about a woman's own health care: mainly wife (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%): Q3</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she burns the food (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnourished children (stunting, -3SD) (% of children under 5): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Condom use, population ages 15-24, female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%): Q4</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%): Q2</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%): Q2</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Pregnant women receiving prenatal care (%)</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (for spacing) (% of married women): Q2</t>
+    <t>Women who believe a husband is justified in beating his wife when she burns the food (%): Q4</t>
+  </si>
+  <si>
+    <t>Status under enhanced HIPC initiative</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%): Q2</t>
   </si>
   <si>
     <t>Women participating in own health care decisions (% of women age 15-49)</t>
   </si>
   <si>
-    <t>Malnourished children (stunting, -2SD) (% of children under 5): Q3</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%): Q3</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%): Q2</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Malnourished children (wasting, -3SD) (% of children under 5): Q3</t>
-  </si>
-  <si>
-    <t>Female headed households (% of households with a female head)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she burns the food (%): Q2</t>
-  </si>
-  <si>
-    <t>Malnourished children (wasting, -2SD) (% of children under 5): Q2</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she argues with him (%): Q3</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (total) (% of married women): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Decision maker about a woman's own health care: other (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (total) (% of married women): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%): Q3</t>
-  </si>
-  <si>
-    <t>Main cooking fuel: straw/shrubs/grass (% of households)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Malnourished children (stunting, -2SD) (% of children under 5): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%)</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Total wanted fertility rate (births per woman): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Women participating in none of the three decisions (own health care, major household purchases, and visiting family) (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband for none of the reasons (%): Q2</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Location of cooking: separate building (% of households)</t>
-  </si>
-  <si>
-    <t>Women participating in decision of what food to cook daily (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (total) (% of married women): Q4</t>
-  </si>
-  <si>
-    <t>Exclusive breastfeeding (% of children under 6 months)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Malnourished children (underweight, -3SD) (% of children under 5): Q1 (lowest)</t>
+    <t>Self-employed, male (% of male employment)</t>
   </si>
   <si>
     <t>Unmet need for family planning (for spacing) (% of married women): Q4</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband for none of the reasons (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Malnourished children (stunting, -2SD) (% of children under 5): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (for limiting) (% of married women): Q2</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Malnourished children (stunting, -3SD) (% of children under 5): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%): Q4</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she burns the food (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Decision maker about major household purchases: other (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Malnourished children (underweight, -3SD) (% of children under 5): Q2</t>
-  </si>
-  <si>
-    <t>Total wanted fertility rate (births per woman): Q3</t>
-  </si>
-  <si>
-    <t>Location of cooking: outdoors (% of households)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she burns the food (%)</t>
-  </si>
-  <si>
-    <t>Main cooking fuel: dung (% of households)</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (for limiting) (% of married women): Q4</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Decision maker about a woman's visits to her family or relatives: mainly husband (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Malnourished children (stunting, -2SD) (% of children under 5): Q4</t>
-  </si>
-  <si>
-    <t>Main cooking fuel: agricultural crop (% of households)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%): Q2</t>
-  </si>
-  <si>
-    <t>Decision maker about a woman's own health care: someone else (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Households with water less than 30 minutes away round trip (%)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%): Q4</t>
-  </si>
-  <si>
-    <t>Malnourished children (wasting, -2SD) (% of children under 5): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%)</t>
-  </si>
-  <si>
-    <t>Main cooking fuel: electricity  (% of households)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%): Q2</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%): Q3</t>
-  </si>
-  <si>
-    <t>Age at first marriage, male</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Decision maker about major household purchases: someone else (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife (any of five reasons) (%): Q4</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she argues with him (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%): Q2</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Decision maker about a woman's own health care: mainly husband (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she argues with him (%): Q4</t>
-  </si>
-  <si>
-    <t>Malnourished children (wasting, -2SD) (% of children under 5): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband for none of the reasons (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%): Q2</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (for limiting) (% of married women): Q3</t>
-  </si>
-  <si>
-    <t>Malnourished children (wasting, -2SD) (% of children under 5): Q4</t>
-  </si>
-  <si>
-    <t>Decision maker about major household purchases: mainly husband (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Malnourished children (underweight, -3SD) (% of children under 5): Q3</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (for spacing) (% of married women): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (total) (% of married women): Q3</t>
-  </si>
-  <si>
-    <t>Total wanted fertility rate (births per woman): Q2</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Malnourished children (underweight, -2SD) (% of children under 5): Q3</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband for none of the reasons (%)</t>
-  </si>
-  <si>
-    <t>Women participating in making major household purchase decisions (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Condom use at last high-risk sex, adult female (% ages 15-49)</t>
-  </si>
-  <si>
-    <t>Households with water on the premises (%)</t>
-  </si>
-  <si>
-    <t>Malnourished children (underweight, -2SD) (% of children under 5): Q2</t>
-  </si>
-  <si>
-    <t>Decision maker about a woman's own health care: wife and husband jointly (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Diarrhea treatment (% of children under 5 who received ORS packet)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnourished children (stunting, -2SD) (% of children under 5): Q2</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Decision maker about major household purchases: wife and husband jointly (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Status under enhanced HIPC initiative</t>
-  </si>
-  <si>
-    <t>Decision maker about a woman's visits to her family or relatives: mainly wife (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Self-employed, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Malnourished children (stunting, -3SD) (% of children under 5): Q2</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she argues with him (%): Q2</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%): Q3</t>
-  </si>
-  <si>
-    <t>Demand for family planning satisfied by modern methods (% of married women with demand for family planning)</t>
-  </si>
-  <si>
-    <t>Households with water 30 minutes or longer away round trip (%)</t>
-  </si>
-  <si>
-    <t>Malnourished children (wasting, -3SD) (% of children under 5): Q2</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%): Q2</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%): Q4</t>
-  </si>
-  <si>
-    <t>Malnourished children (underweight, -2SD) (% of children under 5): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Women participating in the three decisions (own health care, major household purchases, and visiting family) (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (for spacing) (% of married women): Q3</t>
-  </si>
-  <si>
-    <t>Age at first marriage, female</t>
-  </si>
-  <si>
-    <t>Malnourished children (wasting, -3SD) (% of children under 5): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Children in employment, female (% of female children ages 7-14)</t>
-  </si>
-  <si>
-    <t>Women participating in decision of visits to family, relatives, friends (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband for none of the reasons (%): Q3</t>
-  </si>
-  <si>
-    <t>Postnatal care coverage (% mothers)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she burns the food (%): Q3</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sexually transmitted disease (%): Q4</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%): Q3</t>
-  </si>
-  <si>
-    <t>Malnourished children (stunting, -3SD) (% of children under 5): Q4</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%): Q4</t>
-  </si>
-  <si>
-    <t>Demand for family planning satisfied by any methods (% of married women with demand for family planning)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Main cooking fuel: charcoal (% of households)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%): Q3</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she knows he has sex with other women (%): Q3</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she neglects the children (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband for none of the reasons (%): Q4</t>
-  </si>
-  <si>
-    <t>Total wanted fertility rate (births per woman): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she argues with him (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Malnourished children (wasting, -2SD) (% of children under 5): Q3</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she argues with him (%)</t>
-  </si>
-  <si>
-    <t>Unmet need for contraception (% of married women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%): Q4</t>
-  </si>
-  <si>
-    <t>Malnourished children (wasting, -3SD) (% of children under 5): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Decision maker about major household purchases: mainly wife (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of syphilis (% of women attending antenatal care)</t>
-  </si>
-  <si>
-    <t>Children in employment, male (% of male children ages 7-14)</t>
-  </si>
-  <si>
-    <t>Main cooking fuel: LPG/natural gas/biogas (% of households)</t>
-  </si>
-  <si>
-    <t>Malnourished children (underweight, -3SD) (% of children under 5): Q4</t>
-  </si>
-  <si>
-    <t>Malnourished children (underweight, -2SD) (% of children under 5): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Decision maker about Visits to her family or relatives: wife and husband jointly (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she burns the food (%): Q4</t>
-  </si>
-  <si>
-    <t>Diarrhea treatment (% of children under 5 receiving oral rehydration and continued feeding)</t>
-  </si>
-  <si>
-    <t>Decision maker about a woman's visits to her family or relatives: other (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Women who were first married by age 18 (% of women ages 20-24)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%): Q2</t>
-  </si>
-  <si>
-    <t>Total wanted fertility rate (births per woman): Q4</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she is tired or not in the mood (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Location of cooking: other places (% of households)</t>
-  </si>
-  <si>
-    <t>Decision maker about a woman's visits to her family or relatives: someone else (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband for all of the reasons (%): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Wanted fertility rate (births per woman)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Teenage mothers (% of women ages 15-19 who have had children or are currently pregnant)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%): Q3</t>
-  </si>
-  <si>
-    <t>Women who believe a wife is justified refusing sex with her husband if she has recently given birth (%): Q4</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she refuses sex with him (%): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (for spacing) (% of married women): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Malnourished children (wasting, -3SD) (% of children under 5): Q4</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning (for limiting) (% of married women): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Women participating in making daily purchase decisions (% of women age 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Condom use with non regular partner, % adults(15-49), female</t>
-  </si>
-  <si>
-    <t>Malnourished children (underweight, -3SD) (% of children under 5): Q5 (highest)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Location of cooking: inside the house (% of households)</t>
-  </si>
-  <si>
-    <t>Women who believe a husband is justified in beating his wife when she goes out without telling him (%)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Self-employed, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Region_code</t>
   </si>
 </sst>
 </file>
@@ -2408,7 +2405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B680"/>
+  <dimension ref="A1:B679"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2728,7 +2725,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.8095869052079384</v>
+        <v>0.8025356231566563</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2744,7 +2741,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.8025356231566563</v>
+        <v>0.8006125462335794</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2760,7 +2757,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.8006125462335794</v>
+        <v>0.7978955410165742</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2784,7 +2781,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.7960521066731399</v>
+        <v>0.7961133488497666</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2792,7 +2789,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.7956005283369461</v>
+        <v>0.7960521066731399</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2832,7 +2829,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.7814367220577553</v>
+        <v>0.7808689564899897</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2848,7 +2845,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.7808689564899897</v>
+        <v>0.776629029750063</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2856,7 +2853,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.776629029750063</v>
+        <v>0.771146926383344</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2864,7 +2861,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.771146926383344</v>
+        <v>0.7684239015449348</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2976,7 +2973,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.7197669175033352</v>
+        <v>0.7199993773511797</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2984,7 +2981,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.7183704039968577</v>
+        <v>0.715502848239266</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2992,7 +2989,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.7157165234529412</v>
+        <v>0.7151515328879505</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -3000,7 +2997,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.715502848239266</v>
+        <v>0.7148694178035637</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3216,7 +3213,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.6764092495302827</v>
+        <v>0.67722593718497</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -3224,7 +3221,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.6724074180284512</v>
+        <v>0.6764092495302827</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -3232,7 +3229,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.6721723752934086</v>
+        <v>0.6724074180284512</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -3240,7 +3237,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.6718228146664629</v>
+        <v>0.6721723752934086</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -3416,7 +3413,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.6261627075416085</v>
+        <v>0.625132470753504</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -3440,7 +3437,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.6207669261105744</v>
+        <v>0.6113889888708819</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -3448,7 +3445,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.6167047873258207</v>
+        <v>0.6075121178786262</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3456,7 +3453,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.6101253379918463</v>
+        <v>0.6013795102999058</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3464,7 +3461,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.6075121178786262</v>
+        <v>0.6004458050914896</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3472,7 +3469,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.6053764903482619</v>
+        <v>0.5994580642375493</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3480,7 +3477,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.6024106839932557</v>
+        <v>0.5971437676375961</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3488,7 +3485,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.5994580642375493</v>
+        <v>0.5959812239462168</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -3496,7 +3493,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.5971437676375961</v>
+        <v>0.5939913099888043</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3504,7 +3501,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.5927609450880393</v>
+        <v>0.5932263258527795</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3512,7 +3509,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.5877455315634568</v>
+        <v>0.5923737446886195</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3520,7 +3517,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.5849288922806948</v>
+        <v>0.5860016609689671</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -3528,7 +3525,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.5814114726148496</v>
+        <v>0.5859572343905444</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3536,7 +3533,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.5805004925692541</v>
+        <v>0.5855394363765924</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3544,7 +3541,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.5794978778451554</v>
+        <v>0.585242563589726</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -3552,7 +3549,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.5781557708005214</v>
+        <v>0.5849635295322912</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -3560,7 +3557,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.5776730943423753</v>
+        <v>0.5833018227690099</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -3568,7 +3565,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.5767868017100497</v>
+        <v>0.5810076776918238</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3576,7 +3573,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.5765903473414711</v>
+        <v>0.5777046963000521</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3584,7 +3581,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.5762001984098077</v>
+        <v>0.5765903473414711</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3592,7 +3589,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.5731886715144687</v>
+        <v>0.5757500174192984</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3600,7 +3597,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.5719704053176831</v>
+        <v>0.574171537518815</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3608,7 +3605,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.5718712565270057</v>
+        <v>0.5731886715144687</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3616,7 +3613,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.5716447267227736</v>
+        <v>0.5720986104458881</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3624,7 +3621,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.5698891060163391</v>
+        <v>0.5711959771263178</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3640,7 +3637,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.5627034131513735</v>
+        <v>0.5679554604873178</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3648,7 +3645,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.5617153671973794</v>
+        <v>0.5648856138635849</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3656,7 +3653,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.5564557761653854</v>
+        <v>0.5645724720543652</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3664,7 +3661,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.5550353331016049</v>
+        <v>0.5636348246851346</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3672,7 +3669,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.5514909892229418</v>
+        <v>0.5635141152081684</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3680,7 +3677,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.5498285214842706</v>
+        <v>0.5627034131513735</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3688,7 +3685,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.5489889284561775</v>
+        <v>0.5550353331016049</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3696,7 +3693,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.5485808263988112</v>
+        <v>0.5546993714971731</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3704,7 +3701,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.5465737195149014</v>
+        <v>0.5526312673408769</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3712,7 +3709,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.5438403974422001</v>
+        <v>0.5513787244997577</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3720,7 +3717,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.5432088494406271</v>
+        <v>0.550395941108663</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3728,7 +3725,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.5385873618748138</v>
+        <v>0.5489889284561775</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3736,7 +3733,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.5383615235800423</v>
+        <v>0.5438403974422001</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3744,7 +3741,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.5371534322905593</v>
+        <v>0.5406295817370406</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3752,7 +3749,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.5356066736893053</v>
+        <v>0.5403665194653531</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3760,7 +3757,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.5346612147985099</v>
+        <v>0.5392983420503046</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3768,7 +3765,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.531306574427608</v>
+        <v>0.5385873618748138</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3776,7 +3773,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.5292726109521753</v>
+        <v>0.5351803043929666</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3784,7 +3781,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.5284402993159198</v>
+        <v>0.5306692158877344</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3792,7 +3789,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.5277932593920927</v>
+        <v>0.5282103800727393</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3800,7 +3797,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.5268927242400616</v>
+        <v>0.5279143659969976</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3808,7 +3805,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.5265205292416295</v>
+        <v>0.524732087590033</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3816,7 +3813,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.5261669764462027</v>
+        <v>0.522269526958534</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3824,7 +3821,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.5241226472436804</v>
+        <v>0.5215087203605824</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3832,7 +3829,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.5229016815419825</v>
+        <v>0.5188378751312048</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3840,7 +3837,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.5227762273633836</v>
+        <v>0.5184492554264475</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3848,7 +3845,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.5207503850890118</v>
+        <v>0.5176190328304184</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3856,7 +3853,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.5188378751312048</v>
+        <v>0.5171736811198673</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3864,7 +3861,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.5176190328304184</v>
+        <v>0.5159043434441506</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3872,7 +3869,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.5173267690394312</v>
+        <v>0.5148105983799944</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3880,7 +3877,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.5171736811198673</v>
+        <v>0.513041662120767</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3888,7 +3885,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.5171413218303291</v>
+        <v>0.5099008085500869</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3896,7 +3893,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.5160739971757997</v>
+        <v>0.5095430307518283</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3904,7 +3901,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.515153084450886</v>
+        <v>0.5071103823204501</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3912,7 +3909,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.5099008085500869</v>
+        <v>0.5069647884979438</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3920,7 +3917,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.5092282337360097</v>
+        <v>0.5067813257747795</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3928,7 +3925,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.5087316472823367</v>
+        <v>0.5066641311719071</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3936,7 +3933,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.5071103823204501</v>
+        <v>0.5066220579012246</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3944,7 +3941,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.5058347281496027</v>
+        <v>0.5058137654571655</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3952,7 +3949,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.5056388284678166</v>
+        <v>0.5054648421673829</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3960,7 +3957,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.5041401745022176</v>
+        <v>0.5006157778330245</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3968,7 +3965,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.5036892233326233</v>
+        <v>0.4989191892571816</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3976,7 +3973,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.5035417652443059</v>
+        <v>0.4987998045509283</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3984,7 +3981,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.5017149096278637</v>
+        <v>0.4967352696239353</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3992,7 +3989,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.4989191892571816</v>
+        <v>0.496589014711988</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4000,7 +3997,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.4987998045509283</v>
+        <v>0.4951550962015632</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -4008,7 +4005,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.4936074478815302</v>
+        <v>0.495123718283595</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -4016,7 +4013,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.4933679732889342</v>
+        <v>0.4923849274244569</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -4024,7 +4021,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.4924562846969052</v>
+        <v>0.4921266046776562</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -4032,7 +4029,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.4919114935993809</v>
+        <v>0.4917167800170514</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -4040,7 +4037,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.4917167800170514</v>
+        <v>0.4904205236595649</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -4048,7 +4045,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.4901021382003115</v>
+        <v>0.490340318461352</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -4056,7 +4053,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.4867794253817797</v>
+        <v>0.4876670732862096</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -4064,7 +4061,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.4859765079867755</v>
+        <v>0.4867794253817797</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -4072,7 +4069,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.4847248655382064</v>
+        <v>0.4862197639121002</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -4080,7 +4077,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.4836745005365297</v>
+        <v>0.4859765079867755</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -4088,7 +4085,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.478641864337896</v>
+        <v>0.4852685644187251</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -4096,7 +4093,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.4785286013951098</v>
+        <v>0.4852439045278003</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -4104,7 +4101,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.4729243328879502</v>
+        <v>0.4847248655382064</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -4112,7 +4109,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.4721647881352022</v>
+        <v>0.4801129296963971</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -4120,7 +4117,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.4709026407544432</v>
+        <v>0.4795173348838433</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -4128,7 +4125,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.4681764680859071</v>
+        <v>0.4763875214352633</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -4136,7 +4133,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.4666718242661327</v>
+        <v>0.4741941455992407</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -4144,7 +4141,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.4651424718833912</v>
+        <v>0.4686925910399282</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -4152,7 +4149,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.4612011879503553</v>
+        <v>0.4661155165490483</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -4160,7 +4157,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.4602521425994797</v>
+        <v>0.4660364474807746</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -4168,7 +4165,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.4595996237087954</v>
+        <v>0.4647944606234626</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -4176,7 +4173,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.4586480280905068</v>
+        <v>0.459869673078706</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -4184,7 +4181,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.4584133044163297</v>
+        <v>0.4565724090203653</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -4192,7 +4189,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.4579307012845191</v>
+        <v>0.4559802403682394</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -4200,7 +4197,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.4575491239542191</v>
+        <v>0.4539184442465507</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -4208,7 +4205,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.4565724090203653</v>
+        <v>0.4535435575299753</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -4216,7 +4213,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.4559802403682394</v>
+        <v>0.453150772718971</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -4224,7 +4221,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.4548315167905499</v>
+        <v>0.4519418194482472</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -4232,7 +4229,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.4539184442465507</v>
+        <v>0.4510842500046457</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -4240,7 +4237,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.4519418194482472</v>
+        <v>0.4508158967850353</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -4248,7 +4245,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.4513522604303668</v>
+        <v>0.4503139223626764</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -4256,7 +4253,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.4510842500046457</v>
+        <v>0.4487775629115665</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -4264,7 +4261,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.4505866701548684</v>
+        <v>0.4486717274997742</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -4272,7 +4269,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.4503139223626764</v>
+        <v>0.447522625231584</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -4280,7 +4277,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.4503010711129045</v>
+        <v>0.4469065694799155</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -4288,7 +4285,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.4497735192325523</v>
+        <v>0.4467912469373407</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -4296,7 +4293,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.4495001957607103</v>
+        <v>0.4466370954651424</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -4304,7 +4301,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.447522625231584</v>
+        <v>0.4418885992404018</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -4312,7 +4309,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.4466370954651424</v>
+        <v>0.4410461927118037</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4320,7 +4317,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.4421648385959207</v>
+        <v>0.4403208829621479</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -4328,7 +4325,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.4418885992404018</v>
+        <v>0.4362472192014348</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -4336,7 +4333,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.440849560821621</v>
+        <v>0.4343420442357064</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -4344,7 +4341,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.4392292706731977</v>
+        <v>0.4338218284291109</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -4352,7 +4349,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.438476378705364</v>
+        <v>0.4323409673850778</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -4360,7 +4357,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.4343420442357064</v>
+        <v>0.4300350347642847</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -4368,7 +4365,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.4338292221784303</v>
+        <v>0.4291751832778616</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -4376,7 +4373,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.4338218284291109</v>
+        <v>0.4263435171011811</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -4384,7 +4381,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.4291654958262361</v>
+        <v>0.4223723104587149</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -4392,7 +4389,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.4290325130189308</v>
+        <v>0.4206478078463787</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -4400,7 +4397,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.4269947307695534</v>
+        <v>0.4202691187081378</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -4408,7 +4405,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.4227972904491637</v>
+        <v>0.4197785725149905</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -4416,7 +4413,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.4215898714473301</v>
+        <v>0.4196373139464291</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -4424,7 +4421,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.4206113936444711</v>
+        <v>0.4161975461696061</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -4432,7 +4429,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.4198403838234119</v>
+        <v>0.4074431716920668</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -4440,7 +4437,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.4183670645933344</v>
+        <v>0.406573470255801</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -4448,7 +4445,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.4156468432588269</v>
+        <v>0.4057075549202174</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -4456,7 +4453,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.415612916652502</v>
+        <v>0.4050118038858392</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -4464,7 +4461,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.4154571337428543</v>
+        <v>0.4045356085218588</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -4472,7 +4469,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.4129094128913058</v>
+        <v>0.4040506669068862</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -4480,7 +4477,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.4123395371913396</v>
+        <v>0.4021716930133477</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -4488,7 +4485,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.4120838524074937</v>
+        <v>0.401772219893253</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -4496,7 +4493,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.4075209848683219</v>
+        <v>0.4016255833575679</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4504,7 +4501,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.406573470255801</v>
+        <v>0.4015820298144148</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4512,7 +4509,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.4045356085218588</v>
+        <v>0.4010485314901497</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -4520,7 +4517,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.4040506669068862</v>
+        <v>0.3993295295139485</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -4528,7 +4525,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.4033858670028676</v>
+        <v>0.3972262107089994</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4536,7 +4533,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.4023317062057414</v>
+        <v>0.3957350274476898</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -4544,7 +4541,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.400872455064182</v>
+        <v>0.3951595331384572</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -4552,7 +4549,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.3973743010237341</v>
+        <v>0.3948119030145034</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -4560,7 +4557,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.3972262107089994</v>
+        <v>0.3939670912454636</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -4568,7 +4565,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.3957350274476898</v>
+        <v>0.392258442091969</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4576,7 +4573,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.3942272382504717</v>
+        <v>0.3910616780214327</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4584,7 +4581,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.3941069557409591</v>
+        <v>0.3883551882069907</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4592,7 +4589,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.392671518888825</v>
+        <v>0.3877445990726458</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4600,7 +4597,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.392258442091969</v>
+        <v>0.3860496898631498</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4608,7 +4605,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.3861005273324203</v>
+        <v>0.3858596784377253</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4624,7 +4621,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.3854987676700201</v>
+        <v>0.3853900882803192</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4632,7 +4629,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.3853900882803192</v>
+        <v>0.3851834786865038</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4640,7 +4637,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.3824617580778804</v>
+        <v>0.3846132614560143</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4648,7 +4645,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.3788266786254926</v>
+        <v>0.3758313718563704</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4656,7 +4653,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.3767929103179086</v>
+        <v>0.375485620778556</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4664,7 +4661,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.3758885134618595</v>
+        <v>0.3717990003263312</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4672,7 +4669,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.375485620778556</v>
+        <v>0.3706345145085499</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4680,7 +4677,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.3745743866909867</v>
+        <v>0.3704084722470482</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4688,7 +4685,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.3717990003263312</v>
+        <v>0.3699174986109899</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4696,7 +4693,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.3704084722470482</v>
+        <v>0.3638792589516828</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4704,7 +4701,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.3692961833540467</v>
+        <v>0.3622772973949369</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4712,7 +4709,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.3683816655885948</v>
+        <v>0.3588938085412845</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4720,7 +4717,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.3679626260272817</v>
+        <v>0.3581358824702454</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4728,7 +4725,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.3671074516946078</v>
+        <v>0.3579845420435963</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4736,7 +4733,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.3665960231885999</v>
+        <v>0.356609445275083</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4744,7 +4741,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.3623561262301616</v>
+        <v>0.3565946165765095</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4752,7 +4749,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.3608611240297876</v>
+        <v>0.3562515417536145</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4760,7 +4757,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.3606746626663875</v>
+        <v>0.3561299348278912</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4768,7 +4765,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.3600038351470467</v>
+        <v>0.3553404318671267</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4776,7 +4773,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.3581358824702454</v>
+        <v>0.3546356504729689</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4784,7 +4781,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.357252379243</v>
+        <v>0.3522148336289128</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4792,7 +4789,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.3569460848519506</v>
+        <v>0.3503195854095675</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4800,7 +4797,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.3568715022097302</v>
+        <v>0.350215385667588</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4808,7 +4805,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.3562515417536145</v>
+        <v>0.3501632232793457</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4816,7 +4813,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.3553404318671267</v>
+        <v>0.3489893602107503</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4824,7 +4821,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.3545838044264407</v>
+        <v>0.3480735719930719</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4832,7 +4829,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.3522148336289128</v>
+        <v>0.3468617350789223</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4840,7 +4837,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.3480735719930719</v>
+        <v>0.3466839333683152</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4848,7 +4845,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.347212826295398</v>
+        <v>0.3432845339531976</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4856,7 +4853,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.3467545920940511</v>
+        <v>0.343257301765898</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4864,7 +4861,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.3463395779935954</v>
+        <v>0.342425287859434</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4872,7 +4869,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.3420731674254931</v>
+        <v>0.339045819012326</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4880,7 +4877,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.338726876103786</v>
+        <v>0.338988440701103</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4888,7 +4885,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.3375861602264243</v>
+        <v>0.3385143243048052</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4896,7 +4893,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.3362000707688322</v>
+        <v>0.3373176443099388</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4904,7 +4901,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.3357515046310551</v>
+        <v>0.3342412265772974</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4912,7 +4909,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.3338580279568615</v>
+        <v>0.3333371488054671</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4920,7 +4917,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.3321439244766746</v>
+        <v>0.3316174068684952</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4928,7 +4925,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.3321280289562245</v>
+        <v>0.3313203760961512</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4936,7 +4933,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.3316174068684952</v>
+        <v>0.3289104914838377</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4944,7 +4941,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.3292384471049554</v>
+        <v>0.3289019687493491</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4960,7 +4957,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.3279402855162947</v>
+        <v>0.3276763278697619</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4968,7 +4965,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.3278903413577503</v>
+        <v>0.3273661241943195</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4976,7 +4973,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.3277318749793696</v>
+        <v>0.3265287308467755</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4984,7 +4981,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.3240401197912435</v>
+        <v>0.3259962437326616</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4992,7 +4989,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.320117113755098</v>
+        <v>0.324646532609195</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5000,7 +4997,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.3182737904615394</v>
+        <v>0.3241656751149462</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5008,7 +5005,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.3181920232638464</v>
+        <v>0.3232856003004636</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5016,7 +5013,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.3150655198412948</v>
+        <v>0.3221521472436917</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5024,7 +5021,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.3129496081143457</v>
+        <v>0.3164724251104094</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5032,7 +5029,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.3128068346394659</v>
+        <v>0.3129496081143457</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -5040,7 +5037,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.3113523299541323</v>
+        <v>0.3128068346394659</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -5048,7 +5045,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.3048463052489774</v>
+        <v>0.3109047753719625</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -5056,7 +5053,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.3045072839744711</v>
+        <v>0.3067373757631511</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -5064,7 +5061,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.3044437281169761</v>
+        <v>0.3066961543840487</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -5072,7 +5069,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.3034327637662932</v>
+        <v>0.3056916551588424</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -5080,7 +5077,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.3001547415881707</v>
+        <v>0.3048463052489774</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -5088,7 +5085,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.2993163766241633</v>
+        <v>0.3044437281169761</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -5096,7 +5093,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.2990123101197688</v>
+        <v>0.3034327637662932</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -5104,7 +5101,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.2981407010218582</v>
+        <v>0.300594857190436</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -5112,7 +5109,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.2954127860605422</v>
+        <v>0.2998493853120476</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -5120,7 +5117,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.2952082087313299</v>
+        <v>0.2981407010218582</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -5128,7 +5125,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.2941814132639851</v>
+        <v>0.2959174198416206</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -5136,7 +5133,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.2927248479127427</v>
+        <v>0.2954127860605422</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -5144,7 +5141,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.2923221296374607</v>
+        <v>0.2939457803699812</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -5152,7 +5149,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.2916191798564933</v>
+        <v>0.2923221296374607</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -5160,7 +5157,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.2902896358634031</v>
+        <v>0.2876337941595692</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -5168,7 +5165,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.2876337941595692</v>
+        <v>0.2865497560450256</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -5176,7 +5173,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.2872001316414705</v>
+        <v>0.2848044425350063</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -5192,7 +5189,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.2831377758683393</v>
+        <v>0.2834080312206286</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -5208,7 +5205,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.2806700262266772</v>
+        <v>0.2824538533836169</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -5216,7 +5213,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.280055244830127</v>
+        <v>0.2822569177401995</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -5224,7 +5221,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.2796413688835024</v>
+        <v>0.2820170733633216</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -5232,7 +5229,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.2793635325524393</v>
+        <v>0.280055244830127</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -5240,7 +5237,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.2775815454525814</v>
+        <v>0.2779864037521764</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -5248,7 +5245,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.2679515256549621</v>
+        <v>0.2730190432081954</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -5256,7 +5253,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.2666666615038773</v>
+        <v>0.272037339389142</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -5264,7 +5261,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.2617486243005513</v>
+        <v>0.2719790503357669</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -5272,7 +5269,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.2596687326900189</v>
+        <v>0.2707922778895557</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -5280,7 +5277,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.257177856134827</v>
+        <v>0.2652770547183936</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -5288,7 +5285,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.2568685016478676</v>
+        <v>0.2628102843928561</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -5296,7 +5293,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.2568685016478676</v>
+        <v>0.2617486243005513</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -5304,7 +5301,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.2566495955744037</v>
+        <v>0.2599933095521851</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -5312,7 +5309,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.2563909441055556</v>
+        <v>0.2580422967640683</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -5320,7 +5317,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.2555898125569998</v>
+        <v>0.2573414812793757</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -5328,7 +5325,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.2555308988264571</v>
+        <v>0.2568685016478676</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -5336,7 +5333,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.2542905659954915</v>
+        <v>0.2568685016478676</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -5344,7 +5341,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.2530209923160196</v>
+        <v>0.2566495955744037</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -5352,7 +5349,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.2503190863623199</v>
+        <v>0.2554309450144125</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -5360,7 +5357,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.2471381687937122</v>
+        <v>0.2517582913562884</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -5368,7 +5365,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.2431243644238954</v>
+        <v>0.2503190863623199</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -5376,7 +5373,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.242128049756299</v>
+        <v>0.2444538181461426</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -5384,7 +5381,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.2421089120682129</v>
+        <v>0.243310176380352</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -5392,7 +5389,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.2403917343120729</v>
+        <v>0.242867954167485</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -5400,7 +5397,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.239830627322525</v>
+        <v>0.2421385171204102</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -5408,7 +5405,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.2380231048481753</v>
+        <v>0.2421089120682129</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -5416,7 +5413,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.2367325094531696</v>
+        <v>0.2394917941852257</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -5424,7 +5421,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.2359673631506731</v>
+        <v>0.2394279758483142</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -5432,7 +5429,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.2321826962021576</v>
+        <v>0.2362224407628843</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -5440,7 +5437,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.2303669768331154</v>
+        <v>0.2337025108728468</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -5448,7 +5445,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.2298808748526464</v>
+        <v>0.2295880481354571</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -5464,7 +5461,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.2295880481354571</v>
+        <v>0.2292829806638126</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -5472,7 +5469,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.2292829806638126</v>
+        <v>0.226161511787232</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -5480,7 +5477,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.2272515580753576</v>
+        <v>0.2261107182309834</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -5496,7 +5493,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.2226348010708532</v>
+        <v>0.2241983185233891</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -5504,7 +5501,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.2182931620318498</v>
+        <v>0.2227417104404461</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -5512,7 +5509,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.2152788865482886</v>
+        <v>0.2219138837878829</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -5520,7 +5517,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.2148315988343974</v>
+        <v>0.2214677135335752</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -5528,7 +5525,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.2146981507999532</v>
+        <v>0.2207331918147146</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -5536,7 +5533,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.2141010440289095</v>
+        <v>0.21587244812873</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -5544,7 +5541,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.2130656351594846</v>
+        <v>0.2153510591717267</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -5552,7 +5549,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.2128853565449109</v>
+        <v>0.2148315988343974</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -5560,7 +5557,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.2093691596148703</v>
+        <v>0.2145544863487159</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -5568,7 +5565,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.208976820149146</v>
+        <v>0.2141010440289095</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -5576,7 +5573,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.2088716064243887</v>
+        <v>0.2130656351594846</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -5584,7 +5581,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.2066541086943301</v>
+        <v>0.2115710984898409</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -5592,7 +5589,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.2063886271597457</v>
+        <v>0.2113539842827099</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -5600,7 +5597,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.2063224508016701</v>
+        <v>0.2106283572614307</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -5608,7 +5605,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.2059573889869553</v>
+        <v>0.2097578194511343</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -5616,7 +5613,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.2052051941713326</v>
+        <v>0.2093691596148703</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -5624,7 +5621,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.2023750616547042</v>
+        <v>0.2068461531640786</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -5632,7 +5629,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.1990641910962989</v>
+        <v>0.2066541086943301</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -5640,7 +5637,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.195490159524208</v>
+        <v>0.2063224508016701</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -5648,7 +5645,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.1938777212295237</v>
+        <v>0.2060282047668924</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5656,7 +5653,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.1862891211447122</v>
+        <v>0.2056417021078403</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -5664,7 +5661,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.1860548991229436</v>
+        <v>0.2047219624583805</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5672,7 +5669,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.1827949987552244</v>
+        <v>0.2014219003592386</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5680,7 +5677,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.1824410861345773</v>
+        <v>0.1990641910962989</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5688,7 +5685,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.182063564783135</v>
+        <v>0.1864532508421299</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5696,7 +5693,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.17876093395895</v>
+        <v>0.184136173710209</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5704,7 +5701,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.1784486998258168</v>
+        <v>0.1831983485525703</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5712,7 +5709,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.1730629364685747</v>
+        <v>0.1824410861345773</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5720,7 +5717,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.1725763983492234</v>
+        <v>0.182063564783135</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5728,7 +5725,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.1725763983492234</v>
+        <v>0.181976677053042</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5736,7 +5733,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.1684364780616976</v>
+        <v>0.17876093395895</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5744,7 +5741,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.1683487539212638</v>
+        <v>0.1730629364685747</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5752,7 +5749,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.166859119543896</v>
+        <v>0.1725763983492234</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5760,7 +5757,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.1628687850787693</v>
+        <v>0.1725763983492234</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5768,7 +5765,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.1628687850787693</v>
+        <v>0.1704706562417746</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5776,7 +5773,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.1627105487840708</v>
+        <v>0.1690517672094565</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5784,7 +5781,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.1620260662625439</v>
+        <v>0.163171558186864</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5792,7 +5789,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.1614310113807198</v>
+        <v>0.1628687850787693</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5800,7 +5797,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.1610427658220177</v>
+        <v>0.1628687850787693</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -5808,7 +5805,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.1604689952541154</v>
+        <v>0.1627105487840708</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5816,7 +5813,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.160077116631729</v>
+        <v>0.1620227022700564</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -5824,7 +5821,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.1598880430591845</v>
+        <v>0.1618325147801325</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5832,7 +5829,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.1590252988117815</v>
+        <v>0.1604689952541154</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5840,7 +5837,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.1582344366028636</v>
+        <v>0.1594355543714017</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5848,7 +5845,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.1580941577312671</v>
+        <v>0.1590252988117815</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5856,7 +5853,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.1568495338842135</v>
+        <v>0.1580941577312671</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5864,7 +5861,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.1558589024414743</v>
+        <v>0.155902640754443</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5872,7 +5869,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.1558202231720254</v>
+        <v>0.154137786558876</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5880,7 +5877,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.1556142986686495</v>
+        <v>0.1535090003793314</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -5888,7 +5885,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.1549574599154706</v>
+        <v>0.1505179617165238</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -5896,7 +5893,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.154137786558876</v>
+        <v>0.1504656960143909</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -5904,7 +5901,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.1505179617165238</v>
+        <v>0.1500615128514176</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -5912,7 +5909,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.1500615128514176</v>
+        <v>0.1498329154085494</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5920,7 +5917,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.1496489753417527</v>
+        <v>0.1495412797635662</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5928,7 +5925,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.1495412797635662</v>
+        <v>0.1491940411913404</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5936,7 +5933,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.1477137587506516</v>
+        <v>0.1491303226839533</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -5944,7 +5941,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.1465458159532145</v>
+        <v>0.1481404880177501</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5952,7 +5949,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.146503842266144</v>
+        <v>0.145727096442416</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5960,7 +5957,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.1462164952330252</v>
+        <v>0.1452179140075591</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5968,7 +5965,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.1444908042472071</v>
+        <v>0.1448302167590256</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -5976,7 +5973,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.1444880593190463</v>
+        <v>0.1426359226949587</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -5984,7 +5981,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.1418470251932766</v>
+        <v>0.1410268652017705</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -5992,7 +5989,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.1417999337194691</v>
+        <v>0.1408203408279793</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -6000,7 +5997,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.1409883009752666</v>
+        <v>0.1395937952879138</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -6008,7 +6005,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.1408203408279793</v>
+        <v>0.139577859083355</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -6016,7 +6013,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.1403288909720559</v>
+        <v>0.1363741116509869</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -6024,7 +6021,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.1379382696204934</v>
+        <v>0.1333978575785748</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -6032,7 +6029,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.1376623119964706</v>
+        <v>0.1315529375586186</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -6040,7 +6037,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.1319255867426168</v>
+        <v>0.1313338873103584</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -6048,7 +6045,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>0.1287136457183113</v>
+        <v>0.1306435060437388</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -6056,7 +6053,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.1285773962187742</v>
+        <v>0.1292657831365336</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -6064,7 +6061,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.1263133197165944</v>
+        <v>0.1285773962187742</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -6072,7 +6069,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>0.1254352677449175</v>
+        <v>0.128542148058963</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -6080,7 +6077,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>0.1251728743524954</v>
+        <v>0.1285009398618198</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -6088,7 +6085,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.1250927463911082</v>
+        <v>0.1273514382666103</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -6096,7 +6093,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.1240375622207099</v>
+        <v>0.1263133197165944</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -6104,7 +6101,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>0.1228086934031662</v>
+        <v>0.1261555796330232</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -6112,7 +6109,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>0.1226055695230357</v>
+        <v>0.1256876809476191</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -6120,7 +6117,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.1224371054791811</v>
+        <v>0.1254150203883919</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -6128,7 +6125,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>0.1218446616482194</v>
+        <v>0.1249080044262978</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -6136,7 +6133,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>0.1210856302249446</v>
+        <v>0.1249043981400981</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -6144,7 +6141,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.1195471686864829</v>
+        <v>0.1219258458924317</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -6152,7 +6149,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>0.1193296992075501</v>
+        <v>0.1218446616482194</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -6160,7 +6157,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.1185030459140552</v>
+        <v>0.1215686588079039</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -6168,7 +6165,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.1161742229039917</v>
+        <v>0.1210856302249446</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -6176,7 +6173,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>0.1161533794225753</v>
+        <v>0.1206953120596701</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -6184,7 +6181,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.1159994641072386</v>
+        <v>0.1206384837498149</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -6192,7 +6189,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.1147034689570152</v>
+        <v>0.1206126249398491</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -6200,7 +6197,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.1146473288526484</v>
+        <v>0.1198177630914095</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -6208,7 +6205,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>0.1126676104882287</v>
+        <v>0.119553218692606</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -6216,7 +6213,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>0.1117472863869036</v>
+        <v>0.1195471686864829</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -6224,7 +6221,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>0.1113865443649507</v>
+        <v>0.1184762551988308</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -6232,7 +6229,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.1106203951355829</v>
+        <v>0.1176097256688751</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -6240,7 +6237,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>0.110588963084939</v>
+        <v>0.1175714502740448</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -6248,7 +6245,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>0.1094789352965453</v>
+        <v>0.1149436901120129</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -6256,7 +6253,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>0.1088033029258475</v>
+        <v>0.1147034689570152</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -6264,7 +6261,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>0.1086724996137276</v>
+        <v>0.1127152482677631</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -6272,7 +6269,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>0.1086698386438198</v>
+        <v>0.1111908310666414</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -6280,7 +6277,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>0.1082694010623646</v>
+        <v>0.1086698386438198</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -6288,7 +6285,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>0.1075198632353187</v>
+        <v>0.1084709939612878</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -6296,7 +6293,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>0.1072253916931678</v>
+        <v>0.1067733570836316</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -6304,7 +6301,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>0.1070639246018248</v>
+        <v>0.1058112680074619</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -6312,7 +6309,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.1068919195584774</v>
+        <v>0.1055516020590179</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -6320,7 +6317,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>0.1064201013911945</v>
+        <v>0.105472532285352</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -6328,7 +6325,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>0.1055867648281976</v>
+        <v>0.1053345692088141</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -6336,7 +6333,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>0.10504864261991</v>
+        <v>0.1044611842656542</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -6344,7 +6341,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.105028181346686</v>
+        <v>0.1040998285388952</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -6352,7 +6349,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>0.1046954488427194</v>
+        <v>0.103940504239932</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -6360,7 +6357,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>0.1044611842656542</v>
+        <v>0.103869048666815</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -6368,7 +6365,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>0.1041429305654433</v>
+        <v>0.1032362160904226</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -6376,7 +6373,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>0.103940504239932</v>
+        <v>0.1030238679337789</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -6384,7 +6381,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>0.1037399994454034</v>
+        <v>0.1025819130738113</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -6392,7 +6389,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>0.1037390800679316</v>
+        <v>0.1025819130738113</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -6400,7 +6397,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>0.1033152013020888</v>
+        <v>0.1023896333128202</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -6408,7 +6405,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>0.1029448843502796</v>
+        <v>0.1021361890743706</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -6416,7 +6413,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>0.1025852507681904</v>
+        <v>0.1019693643132549</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -6424,7 +6421,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>0.1025819130738113</v>
+        <v>0.1004121518257892</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -6432,7 +6429,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>0.1025819130738113</v>
+        <v>0.1003627294697187</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -6440,7 +6437,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>0.1021065338524174</v>
+        <v>0.09974692837802546</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -6448,7 +6445,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>0.1019484545146612</v>
+        <v>0.09949306320189355</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -6456,7 +6453,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>0.1016908653996957</v>
+        <v>0.09900991157611805</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -6464,7 +6461,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>0.09923423460548886</v>
+        <v>0.09847677889986595</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -6472,7 +6469,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>0.09833759708146106</v>
+        <v>0.09761107310935513</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -6480,7 +6477,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>0.09723457686309911</v>
+        <v>0.09755977249289383</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -6488,7 +6485,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>0.09682726718909507</v>
+        <v>0.09739024309782374</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -6496,7 +6493,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>0.09681580255240019</v>
+        <v>0.09735930640433477</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -6504,7 +6501,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>0.09652304924135624</v>
+        <v>0.09728100141006513</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -6512,7 +6509,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>0.09621261847455553</v>
+        <v>0.09717795541759999</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -6520,7 +6517,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>0.09572876473210501</v>
+        <v>0.09713303816035501</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -6528,7 +6525,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>0.09547857768843149</v>
+        <v>0.09708638107850587</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -6536,7 +6533,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>0.09538746266516362</v>
+        <v>0.09658440139103064</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -6544,7 +6541,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>0.09512998834600017</v>
+        <v>0.09544891146594559</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -6552,7 +6549,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>0.09512439037632658</v>
+        <v>0.09536067933954628</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -6560,7 +6557,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>0.09509630881432085</v>
+        <v>0.09430409101591275</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -6568,7 +6565,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>0.09346649225780612</v>
+        <v>0.09367633178704926</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -6576,7 +6573,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>0.09327360096732451</v>
+        <v>0.09360462682355597</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -6584,7 +6581,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>0.09302891402687474</v>
+        <v>0.09277118448284538</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -6592,7 +6589,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>0.09211261660157288</v>
+        <v>0.09261937041682455</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -6600,7 +6597,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>0.09192840930460688</v>
+        <v>0.09153105234198011</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -6608,7 +6605,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>0.09192782394902821</v>
+        <v>0.08921461185300261</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -6616,7 +6613,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>0.0916626340852833</v>
+        <v>0.08860501084680839</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -6624,7 +6621,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>0.09079227738221451</v>
+        <v>0.0885374261426104</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -6632,7 +6629,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>0.08985110718550593</v>
+        <v>0.08852176973997405</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -6640,7 +6637,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>0.0897407308036795</v>
+        <v>0.08778737275276249</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -6648,7 +6645,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>0.08936650632868304</v>
+        <v>0.08751327471489923</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -6656,7 +6653,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>0.08900903906495894</v>
+        <v>0.08672749316440642</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -6664,7 +6661,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>0.08894104603973907</v>
+        <v>0.08629326016741068</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -6672,7 +6669,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>0.08870930508239194</v>
+        <v>0.08603075636189161</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -6680,7 +6677,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>0.08863645950811638</v>
+        <v>0.0856327754877253</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -6688,7 +6685,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>0.08852176973997405</v>
+        <v>0.08478073503389227</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -6696,7 +6693,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>0.08686021149933487</v>
+        <v>0.08471440988648782</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -6704,7 +6701,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>0.08656984562964576</v>
+        <v>0.08460240179942424</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -6712,7 +6709,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>0.08636110961433152</v>
+        <v>0.0844807249243773</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -6720,7 +6717,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>0.08629326016741068</v>
+        <v>0.08404711133347798</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -6728,7 +6725,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>0.08357757921535147</v>
+        <v>0.08371905180244599</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -6744,7 +6741,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>0.08317802155163068</v>
+        <v>0.08289119990694949</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -6752,7 +6749,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>0.08275737181047416</v>
+        <v>0.08233668282008777</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -6760,7 +6757,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>0.08228943773437658</v>
+        <v>0.08200786957376716</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -6768,7 +6765,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>0.08196638876972928</v>
+        <v>0.0819130838309905</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -6776,7 +6773,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>0.08191002085924093</v>
+        <v>0.08063103603073141</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -6784,7 +6781,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>0.08162546551528149</v>
+        <v>0.08028246200367217</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -6792,7 +6789,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>0.0809464212625528</v>
+        <v>0.08022993530954636</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -6800,7 +6797,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>0.08060260504886307</v>
+        <v>0.08014495381368736</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -6808,7 +6805,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>0.08045831759350919</v>
+        <v>0.07925879526211554</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -6816,7 +6813,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>0.07998728418630852</v>
+        <v>0.07909366027511378</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -6824,7 +6821,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>0.0795088375682873</v>
+        <v>0.07905008200630559</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -6832,7 +6829,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>0.07945468367237463</v>
+        <v>0.07742227464031393</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -6840,7 +6837,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>0.07904501003697262</v>
+        <v>0.07725573900501814</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -6848,7 +6845,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>0.07854199500585679</v>
+        <v>0.07644624692839663</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -6856,7 +6853,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>0.07680118396620594</v>
+        <v>0.07633075955179769</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -6864,7 +6861,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>0.07673268732082228</v>
+        <v>0.0759010511724616</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -6872,7 +6869,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>0.07657351529251311</v>
+        <v>0.07558947005106487</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -6880,7 +6877,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>0.07633075955179769</v>
+        <v>0.07548598461105338</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -6888,7 +6885,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>0.07509711231652205</v>
+        <v>0.07491820968700291</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -6896,7 +6893,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>0.0747155833673292</v>
+        <v>0.07458246955969727</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -6904,7 +6901,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>0.07396842079894772</v>
+        <v>0.0744398319356574</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -6912,7 +6909,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>0.07385599655898334</v>
+        <v>0.07394277858722575</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -6920,7 +6917,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>0.07371062490686486</v>
+        <v>0.07311020570588567</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -6928,7 +6925,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>0.07301928720698325</v>
+        <v>0.07280141694865838</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -6936,7 +6933,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>0.07182302695415754</v>
+        <v>0.07254737280024703</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -6944,7 +6941,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>0.07157099163063796</v>
+        <v>0.07243721388768676</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -6952,7 +6949,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>0.07140762055559291</v>
+        <v>0.07062994619565788</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -6960,7 +6957,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>0.07118356482576993</v>
+        <v>0.07035715724845826</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -6968,7 +6965,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>0.07109314953000778</v>
+        <v>0.07012241192103352</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -6976,7 +6973,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>0.07095994585567067</v>
+        <v>0.06992708761789057</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -6984,7 +6981,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>0.06906405718516573</v>
+        <v>0.069609644576615</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -6992,7 +6989,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>0.06878501258788328</v>
+        <v>0.06951787682969868</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -7000,7 +6997,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>0.06840476824247421</v>
+        <v>0.06933749917435184</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -7008,7 +7005,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>0.06823353972158586</v>
+        <v>0.06895058660063169</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -7016,7 +7013,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>0.06772514357690151</v>
+        <v>0.0678498717314866</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -7024,7 +7021,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>0.06729469427726253</v>
+        <v>0.06774189736353797</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -7032,7 +7029,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>0.06717253560078906</v>
+        <v>0.06773243566554044</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -7040,7 +7037,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>0.06703862167571084</v>
+        <v>0.06726558306501418</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -7048,7 +7045,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>0.06682443482387224</v>
+        <v>0.06702718656641715</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -7056,7 +7053,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>0.06677186881626085</v>
+        <v>0.06632560128570408</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -7064,7 +7061,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>0.06663432050872964</v>
+        <v>0.06609484176223335</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -7072,7 +7069,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>0.06607681905987484</v>
+        <v>0.06604326998885113</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -7080,7 +7077,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>0.06602363098924569</v>
+        <v>0.06524261752090266</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -7088,7 +7085,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>0.06577662446272159</v>
+        <v>0.06494827581222573</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -7096,7 +7093,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>0.06541662020702699</v>
+        <v>0.06488377774571186</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -7104,7 +7101,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>0.06480616842398379</v>
+        <v>0.0647503785681609</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -7112,7 +7109,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>0.06442815386596279</v>
+        <v>0.06466994640998847</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -7120,7 +7117,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>0.06365971877520749</v>
+        <v>0.06396171447736587</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -7128,7 +7125,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>0.06361673136771717</v>
+        <v>0.06367413858248527</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -7136,7 +7133,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>0.06350633557208307</v>
+        <v>0.06298078009551955</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -7144,7 +7141,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>0.06309126263064013</v>
+        <v>0.06136272875188076</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -7152,7 +7149,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>0.06289158566117981</v>
+        <v>0.0607320530375941</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -7160,7 +7157,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>0.06271655387231911</v>
+        <v>0.06038879084324211</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -7168,7 +7165,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>0.06270262146075445</v>
+        <v>0.05983458037651701</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -7176,7 +7173,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>0.06047026239877407</v>
+        <v>0.05894756733170592</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -7184,7 +7181,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>0.06026794930759971</v>
+        <v>0.05878790337157769</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -7192,7 +7189,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>0.06025386104778807</v>
+        <v>0.0581400355065298</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -7200,7 +7197,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>0.06003472078488747</v>
+        <v>0.05791905016945087</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -7208,7 +7205,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>0.0598306040927794</v>
+        <v>0.05788552336422614</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -7216,7 +7213,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>0.05977574027962085</v>
+        <v>0.05751599358001935</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -7224,7 +7221,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>0.05968043490099117</v>
+        <v>0.05706156292798781</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -7232,7 +7229,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>0.0592607313244069</v>
+        <v>0.05690832924001676</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -7240,7 +7237,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>0.05901916545022545</v>
+        <v>0.05603717313178547</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -7248,7 +7245,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>0.05894756733170592</v>
+        <v>0.05505907936679444</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -7256,7 +7253,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>0.05855609604938872</v>
+        <v>0.05337135639125257</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -7264,7 +7261,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>0.0574319756890096</v>
+        <v>0.05322225873940556</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -7272,7 +7269,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>0.05714676841120947</v>
+        <v>0.05253978293389028</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -7280,7 +7277,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>0.05662508967401503</v>
+        <v>0.0519114276211885</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -7288,7 +7285,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>0.0556989962140968</v>
+        <v>0.05152147044635469</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -7296,7 +7293,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>0.05512534460601315</v>
+        <v>0.05146333566040995</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -7304,7 +7301,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>0.05481021504080097</v>
+        <v>0.05082550882188164</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -7312,7 +7309,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>0.05429533311054757</v>
+        <v>0.04990580093451702</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -7320,7 +7317,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>0.05380908540646856</v>
+        <v>0.04982068439682519</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -7328,7 +7325,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>0.05335940525446947</v>
+        <v>0.04922791521555392</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -7336,7 +7333,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>0.05162388401390383</v>
+        <v>0.04883153435234555</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -7344,7 +7341,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>0.05159409969699991</v>
+        <v>0.04811888464747427</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -7352,7 +7349,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>0.05135290780807256</v>
+        <v>0.04785622937886291</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -7360,7 +7357,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>0.05096941874185079</v>
+        <v>0.04733412296732986</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -7368,7 +7365,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>0.05075870648599645</v>
+        <v>0.04677330342324471</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -7376,7 +7373,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>0.05029710477849147</v>
+        <v>0.04533601716951208</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -7384,7 +7381,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>0.0497278725857091</v>
+        <v>0.04461893495753766</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -7392,7 +7389,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>0.04942874568655675</v>
+        <v>0.04404828251058279</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -7400,7 +7397,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>0.04912849893985882</v>
+        <v>0.04388667750420283</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -7408,7 +7405,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>0.04786967303705914</v>
+        <v>0.04369316604026929</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -7416,7 +7413,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>0.04647590287452363</v>
+        <v>0.04342032601774037</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -7424,7 +7421,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>0.0463677350004692</v>
+        <v>0.04230302149200749</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -7432,7 +7429,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>0.04588139028682048</v>
+        <v>0.04214329720886534</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -7440,7 +7437,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>0.04482951544341818</v>
+        <v>0.04135205398104502</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -7448,7 +7445,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>0.04475499652356341</v>
+        <v>0.04065752288661795</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -7456,7 +7453,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>0.04335848332851588</v>
+        <v>0.04041809487615455</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -7464,7 +7461,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>0.04319424675779171</v>
+        <v>0.04039435584192219</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -7472,7 +7469,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>0.04254224601128098</v>
+        <v>0.03943780332337932</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -7480,7 +7477,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>0.04172443400095616</v>
+        <v>0.03917110408079161</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -7488,7 +7485,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>0.04111708462622299</v>
+        <v>0.03745881393791795</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -7496,7 +7493,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>0.03986584396101334</v>
+        <v>0.0369227806513881</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -7504,7 +7501,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>0.03922576439132319</v>
+        <v>0.03551684623565809</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -7512,7 +7509,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>0.03780130284036742</v>
+        <v>0.03535769043261539</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -7520,7 +7517,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>0.03747251214899427</v>
+        <v>0.03480793188945164</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -7528,7 +7525,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>0.03665089387419318</v>
+        <v>0.03474466408752641</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -7536,7 +7533,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>0.03605851839058483</v>
+        <v>0.03295612092996825</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -7544,7 +7541,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>0.03416492690969242</v>
+        <v>0.03277983350867797</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -7552,7 +7549,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>0.03389051848577673</v>
+        <v>0.03267828581337273</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -7560,7 +7557,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>0.03387519112251813</v>
+        <v>0.03238612053835088</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -7568,7 +7565,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>0.03326779553332426</v>
+        <v>0.03186431852718807</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -7576,7 +7573,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>0.03257365655891631</v>
+        <v>0.02992109232137641</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -7584,7 +7581,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>0.03252829675198687</v>
+        <v>0.02981241114528621</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -7592,7 +7589,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>0.0317576556912138</v>
+        <v>0.02967678866845946</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -7600,7 +7597,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>0.03091866594379811</v>
+        <v>0.02950060854090841</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -7608,7 +7605,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>0.0301760762111023</v>
+        <v>0.02934425742534597</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -7616,7 +7613,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>0.02926582340185169</v>
+        <v>0.02906538174958717</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -7624,7 +7621,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>0.02785922318811607</v>
+        <v>0.02860018151106214</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -7632,7 +7629,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>0.02752091037173487</v>
+        <v>0.02813886126676657</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -7640,7 +7637,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>0.02691603098749473</v>
+        <v>0.02782007673860409</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -7648,7 +7645,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>0.02620172705511159</v>
+        <v>0.02226014312443425</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -7656,7 +7653,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>0.02606860269229316</v>
+        <v>0.02191366443583909</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -7664,7 +7661,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>0.02466773310770587</v>
+        <v>0.02146993193163804</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -7672,7 +7669,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>0.0236249296940767</v>
+        <v>0.02081476333693777</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -7680,7 +7677,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>0.02339680394793375</v>
+        <v>0.01959510327075753</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -7688,7 +7685,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>0.02235169158933181</v>
+        <v>0.01924689240608002</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -7696,7 +7693,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>0.02191366443583909</v>
+        <v>0.0191618447126245</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -7704,7 +7701,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>0.02191366443583909</v>
+        <v>0.01827018177817186</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -7712,7 +7709,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>0.02167169286662252</v>
+        <v>0.01794494156642479</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -7720,7 +7717,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>0.02012169057484181</v>
+        <v>0.01770821271540424</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -7728,7 +7725,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>0.01831736885343571</v>
+        <v>0.01661991309008193</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -7736,7 +7733,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>0.01718869634689923</v>
+        <v>0.01633474369770682</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -7744,7 +7741,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>0.01443746672134472</v>
+        <v>0.01619922561500164</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -7752,7 +7749,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>0.01309834892139783</v>
+        <v>0.01607055987424322</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -7760,7 +7757,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>0.01251490458595161</v>
+        <v>0.01397821172551383</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -7768,7 +7765,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>0.01225875022147993</v>
+        <v>0.01378389765685162</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -7776,7 +7773,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>0.01090266737406598</v>
+        <v>0.01057082744206506</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -7792,7 +7789,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>0.009039588239828866</v>
+        <v>0.01010049637058508</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -7800,7 +7797,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>0.008849145555406279</v>
+        <v>0.009988878048273309</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -7808,7 +7805,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>0.00871998815267494</v>
+        <v>0.008136624599812459</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -7816,7 +7813,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>0.007616260927496787</v>
+        <v>0.004607768020795877</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -7824,7 +7821,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>0.005915329527872881</v>
+        <v>0.003036438806487851</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -7832,7 +7829,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>0.004279278660880514</v>
+        <v>0.002883212515464306</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -7840,15 +7837,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>0.00252047294036184</v>
-      </c>
-    </row>
-    <row r="680" spans="1:2">
-      <c r="A680" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B680">
-        <v>0.001961597479418264</v>
+        <v>0.002208626379172518</v>
       </c>
     </row>
   </sheetData>
